--- a/spec/ConvSpec-3XX-v2.0.xlsx
+++ b/spec/ConvSpec-3XX-v2.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ntra\bash\work\dev\marc2bibframe2\spec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\BF 2.0 Bib specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -902,9 +902,6 @@
     <t>I - carrier - Carrier</t>
   </si>
   <si>
-    <t>I - musicFormat - MusicFormat</t>
-  </si>
-  <si>
     <t>## - acquisitionTerms - literal</t>
   </si>
   <si>
@@ -1519,12 +1516,15 @@
   <si>
     <t>Fields 3XX - Physical Description, etc. - v2.0, 08/09/2022</t>
   </si>
+  <si>
+    <t>W - musicFormat - MusicFormat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1591,13 +1591,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1640,7 +1633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1683,9 +1676,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1994,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2012,16 +2002,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2052,7 +2042,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,7 +2059,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -2108,10 +2098,10 @@
     </row>
     <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2134,7 +2124,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C19" s="12"/>
     </row>
@@ -2152,7 +2142,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2198,10 +2188,10 @@
     <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C32" s="13"/>
     </row>
@@ -2220,7 +2210,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -2242,10 +2232,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2267,10 +2257,10 @@
     <row r="41" spans="1:3" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C42" s="11"/>
     </row>
@@ -2289,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C45" s="5"/>
     </row>
@@ -2312,10 +2302,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C48" s="11"/>
     </row>
@@ -2342,26 +2332,26 @@
     </row>
     <row r="52" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>289</v>
@@ -2369,15 +2359,15 @@
     </row>
     <row r="56" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>280</v>
@@ -2386,16 +2376,16 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>279</v>
@@ -2404,7 +2394,7 @@
     </row>
     <row r="60" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>277</v>
@@ -2416,10 +2406,10 @@
     </row>
     <row r="62" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2436,13 +2426,13 @@
     </row>
     <row r="65" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B66" s="2"/>
     </row>
@@ -2455,7 +2445,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="11"/>
@@ -2481,7 +2471,7 @@
     </row>
     <row r="72" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2519,7 +2509,7 @@
         <v>28</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2532,10 +2522,10 @@
     </row>
     <row r="80" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2543,7 +2533,7 @@
         <v>30</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2564,10 +2554,10 @@
     </row>
     <row r="84" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2576,7 +2566,7 @@
         <v>31</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2604,7 +2594,7 @@
         <v>33</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2617,10 +2607,10 @@
     </row>
     <row r="92" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -2628,7 +2618,7 @@
         <v>30</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2681,7 +2671,7 @@
         <v>36</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2694,10 +2684,10 @@
     </row>
     <row r="103" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -2705,7 +2695,7 @@
         <v>30</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,7 +2737,7 @@
         <v>39</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,7 +2753,7 @@
         <v>41</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2771,7 +2761,7 @@
         <v>42</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2779,23 +2769,23 @@
         <v>43</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2811,7 +2801,7 @@
         <v>45</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2819,7 +2809,7 @@
         <v>46</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2827,15 +2817,15 @@
         <v>47</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
-        <v>467</v>
+      <c r="A122" s="13" t="s">
+        <v>466</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2843,7 +2833,7 @@
         <v>48</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2851,7 +2841,7 @@
         <v>49</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2859,23 +2849,23 @@
         <v>50</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>392</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2888,10 +2878,10 @@
     </row>
     <row r="129" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2907,7 +2897,7 @@
         <v>11</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132" spans="1:2" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2921,10 +2911,10 @@
     <row r="133" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2935,32 +2925,32 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2971,42 +2961,42 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3039,7 +3029,7 @@
         <v>51</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3248,7 +3238,7 @@
         <v>89</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,10 +3307,10 @@
         <v>99</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D206" s="13"/>
     </row>
@@ -3339,7 +3329,7 @@
         <v>100</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
@@ -3347,7 +3337,7 @@
         <v>101</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3364,7 +3354,7 @@
         <v>103</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3386,10 +3376,10 @@
     </row>
     <row r="215" spans="1:3" ht="189" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
@@ -3397,23 +3387,23 @@
         <v>106</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="217" spans="1:3" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="218" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B218" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>472</v>
       </c>
       <c r="C218" s="11"/>
     </row>
@@ -3427,10 +3417,10 @@
     </row>
     <row r="220" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3460,13 +3450,13 @@
     <row r="224" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="225" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D225" s="13"/>
     </row>
@@ -3485,7 +3475,7 @@
         <v>107</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -3498,18 +3488,18 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -3522,10 +3512,10 @@
     </row>
     <row r="233" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3554,7 +3544,7 @@
     </row>
     <row r="237" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>277</v>
@@ -3566,10 +3556,10 @@
         <v>109</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D239" s="13"/>
     </row>
@@ -3588,7 +3578,7 @@
         <v>110</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="189" x14ac:dyDescent="0.25">
@@ -3596,7 +3586,7 @@
         <v>111</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -3633,7 +3623,7 @@
     </row>
     <row r="248" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>277</v>
@@ -3645,10 +3635,10 @@
         <v>112</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D250" s="13"/>
     </row>
@@ -3667,7 +3657,7 @@
         <v>113</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
@@ -3675,7 +3665,7 @@
         <v>114</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -3699,7 +3689,7 @@
         <v>117</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3720,10 +3710,10 @@
     </row>
     <row r="260" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3753,10 +3743,7 @@
     <row r="264" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="265" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>293</v>
+        <v>415</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3768,13 +3755,16 @@
       <c r="A267" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B267" s="1" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="268" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3787,16 +3777,16 @@
     </row>
     <row r="270" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C270" s="11"/>
     </row>
     <row r="271" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B271" s="14" t="s">
         <v>277</v>
@@ -3813,10 +3803,10 @@
     </row>
     <row r="273" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -3845,10 +3835,10 @@
     </row>
     <row r="277" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="278" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3857,7 +3847,7 @@
         <v>122</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D279" s="3"/>
     </row>
@@ -3876,7 +3866,7 @@
         <v>123</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D282" s="3"/>
     </row>
@@ -3885,7 +3875,7 @@
         <v>124</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="284" spans="1:4" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3902,7 +3892,7 @@
         <v>125</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -3922,7 +3912,7 @@
         <v>126</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +3920,7 @@
         <v>127</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +3928,7 @@
         <v>128</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -3963,7 +3953,7 @@
         <v>129</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -3983,7 +3973,7 @@
         <v>130</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -3991,7 +3981,7 @@
         <v>131</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -3999,7 +3989,7 @@
         <v>132</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4007,7 +3997,7 @@
         <v>133</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4015,7 +4005,7 @@
         <v>134</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4023,7 +4013,7 @@
         <v>135</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4031,7 +4021,7 @@
         <v>136</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4039,7 +4029,7 @@
         <v>137</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4047,7 +4037,7 @@
         <v>138</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="307" spans="1:2" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4061,27 +4051,27 @@
     <row r="308" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="309" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A309" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="310" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B310" s="13"/>
     </row>
     <row r="311" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B311" s="13"/>
     </row>
     <row r="312" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B312" s="13" t="s">
         <v>289</v>
@@ -4089,15 +4079,15 @@
     </row>
     <row r="313" spans="1:2" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A313" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="314" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B314" s="13" t="s">
         <v>280</v>
@@ -4105,10 +4095,10 @@
     </row>
     <row r="315" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="316" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4141,7 +4131,7 @@
         <v>139</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
@@ -4250,7 +4240,7 @@
         <v>157</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,7 +4301,7 @@
         <v>165</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -4319,7 +4309,7 @@
         <v>166</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4332,7 +4322,7 @@
         <v>167</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4356,7 +4346,7 @@
         <v>169</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -4504,7 +4494,7 @@
         <v>196</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -4612,7 +4602,7 @@
         <v>211</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -4705,7 +4695,7 @@
         <v>222</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -4713,7 +4703,7 @@
         <v>223</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -4721,7 +4711,7 @@
         <v>224</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C434" s="7"/>
     </row>
@@ -4730,7 +4720,7 @@
         <v>225</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,7 +4728,7 @@
         <v>226</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -4746,7 +4736,7 @@
         <v>227</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -4754,7 +4744,7 @@
         <v>228</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4767,10 +4757,10 @@
     </row>
     <row r="440" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4778,7 +4768,7 @@
         <v>121</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="442" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4791,7 +4781,7 @@
     </row>
     <row r="443" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>277</v>
@@ -4807,10 +4797,10 @@
     </row>
     <row r="445" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -4833,7 +4823,7 @@
         <v>230</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -4858,10 +4848,10 @@
         <v>233</v>
       </c>
       <c r="B453" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C453" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4869,10 +4859,10 @@
         <v>234</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="455" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -4880,15 +4870,15 @@
         <v>29</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="456" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -4896,7 +4886,7 @@
         <v>30</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="458" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4917,10 +4907,10 @@
     </row>
     <row r="460" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="461" spans="1:3" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4929,7 +4919,7 @@
         <v>235</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -4947,7 +4937,7 @@
         <v>236</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C465" s="7"/>
     </row>
@@ -4961,10 +4951,10 @@
     </row>
     <row r="467" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -4972,7 +4962,7 @@
         <v>121</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="469" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4993,10 +4983,10 @@
     </row>
     <row r="471" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="472" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5005,7 +4995,7 @@
         <v>238</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -5020,7 +5010,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -5040,7 +5030,7 @@
     </row>
     <row r="480" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -5060,7 +5050,7 @@
     </row>
     <row r="484" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="485" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5069,7 +5059,7 @@
         <v>239</v>
       </c>
       <c r="B486" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C486" s="7"/>
     </row>
@@ -5104,23 +5094,23 @@
         <v>242</v>
       </c>
       <c r="B491" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B492" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B493" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -5163,7 +5153,7 @@
         <v>246</v>
       </c>
       <c r="B499" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -5171,7 +5161,7 @@
         <v>247</v>
       </c>
       <c r="B500" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -5179,7 +5169,7 @@
         <v>248</v>
       </c>
       <c r="B501" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5187,7 +5177,7 @@
         <v>249</v>
       </c>
       <c r="B502" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5195,7 +5185,7 @@
         <v>250</v>
       </c>
       <c r="B503" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5203,7 +5193,7 @@
         <v>251</v>
       </c>
       <c r="B504" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5211,7 +5201,7 @@
         <v>252</v>
       </c>
       <c r="B505" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -5219,7 +5209,7 @@
         <v>253</v>
       </c>
       <c r="B506" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -5227,7 +5217,7 @@
         <v>254</v>
       </c>
       <c r="B507" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -5235,7 +5225,7 @@
         <v>255</v>
       </c>
       <c r="B508" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -5243,15 +5233,15 @@
         <v>237</v>
       </c>
       <c r="B509" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="510" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B510" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -5259,7 +5249,7 @@
         <v>121</v>
       </c>
       <c r="B511" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -5280,10 +5270,10 @@
     </row>
     <row r="514" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B514" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="515" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5307,7 +5297,7 @@
         <v>257</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,7 +5305,7 @@
         <v>258</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="521" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -5323,7 +5313,7 @@
         <v>259</v>
       </c>
       <c r="B521" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C521" s="7"/>
     </row>
@@ -5332,7 +5322,7 @@
         <v>260</v>
       </c>
       <c r="B522" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -5340,7 +5330,7 @@
         <v>261</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,7 +5338,7 @@
         <v>30</v>
       </c>
       <c r="B524" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D524" s="13"/>
     </row>
@@ -5357,7 +5347,7 @@
         <v>11</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="526" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5370,16 +5360,16 @@
     </row>
     <row r="527" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="528" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C529" s="7"/>
     </row>
@@ -5391,33 +5381,33 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B532" s="2"/>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B533" s="2"/>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B534" s="2"/>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B535" s="2"/>
     </row>
@@ -5432,7 +5422,7 @@
         <v>262</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -5440,15 +5430,15 @@
         <v>237</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="539" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="540" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5456,7 +5446,7 @@
         <v>11</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="541" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5469,10 +5459,10 @@
     </row>
     <row r="542" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B542" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="543" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5481,7 +5471,7 @@
         <v>263</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -5507,7 +5497,7 @@
         <v>265</v>
       </c>
       <c r="B548" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5515,7 +5505,7 @@
         <v>266</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5523,7 +5513,7 @@
         <v>267</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5531,15 +5521,15 @@
         <v>29</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="552" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5547,7 +5537,7 @@
         <v>30</v>
       </c>
       <c r="B553" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,10 +5558,10 @@
     </row>
     <row r="556" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="557" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5580,7 +5570,7 @@
         <v>268</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -5606,12 +5596,12 @@
         <v>270</v>
       </c>
       <c r="B562" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B563" s="2" t="s">
         <v>277</v>
@@ -5622,7 +5612,7 @@
         <v>266</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5630,7 +5620,7 @@
         <v>267</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5638,15 +5628,15 @@
         <v>29</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="567" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5654,7 +5644,7 @@
         <v>30</v>
       </c>
       <c r="B568" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -5667,7 +5657,7 @@
     </row>
     <row r="570" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>277</v>
@@ -5683,10 +5673,10 @@
     </row>
     <row r="572" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="573" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5695,10 +5685,10 @@
     </row>
     <row r="574" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="575" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5715,79 +5705,79 @@
     </row>
     <row r="577" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B577" s="2"/>
     </row>
     <row r="578" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B578" s="2"/>
     </row>
     <row r="579" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B579" s="2"/>
     </row>
     <row r="580" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B580" s="2"/>
     </row>
     <row r="581" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B581" s="2"/>
     </row>
     <row r="582" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B582" s="2"/>
     </row>
     <row r="583" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B583" s="2"/>
     </row>
     <row r="584" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B584" s="2"/>
     </row>
     <row r="585" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B585" s="2"/>
     </row>
     <row r="586" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B586" s="2"/>
     </row>
     <row r="587" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B587" s="2"/>
     </row>
     <row r="588" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B588" s="2"/>
     </row>
     <row r="589" spans="1:2" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B589" s="2"/>
     </row>
@@ -5799,7 +5789,7 @@
     </row>
     <row r="591" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B591" s="2"/>
     </row>
@@ -5823,7 +5813,7 @@
     </row>
     <row r="595" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B595" s="2"/>
     </row>
@@ -5833,7 +5823,7 @@
         <v>271</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -5878,7 +5868,7 @@
     </row>
     <row r="606" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -5898,7 +5888,7 @@
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
